--- a/Code/Results/Cases/Case_2_253/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_253/res_line/loading_percent.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>24.24847895087455</v>
+        <v>21.37456280765034</v>
       </c>
       <c r="C2">
-        <v>18.84232322065928</v>
+        <v>11.36548476683183</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>5.020541402468408</v>
+        <v>8.625279463289823</v>
       </c>
       <c r="F2">
-        <v>30.27884324296193</v>
+        <v>16.86991607391233</v>
       </c>
       <c r="G2">
-        <v>2.090575263043535</v>
+        <v>3.716552107095005</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>36.35735032556613</v>
+        <v>35.83496705610499</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -451,7 +451,7 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>7.995879774149074</v>
+        <v>10.77073310614577</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>22.48510273788536</v>
+        <v>21.02796891469282</v>
       </c>
       <c r="C3">
-        <v>17.43383074211294</v>
+        <v>10.8147708032762</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>5.025109528585451</v>
+        <v>8.63470932158665</v>
       </c>
       <c r="F3">
-        <v>28.16301984326747</v>
+        <v>15.89584955866808</v>
       </c>
       <c r="G3">
-        <v>2.105548387550801</v>
+        <v>3.721386874987418</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>34.81106021257137</v>
+        <v>35.48134649904628</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -498,7 +498,7 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>7.714931202966352</v>
+        <v>10.75407328103996</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>21.45233438334092</v>
+        <v>20.82044561178383</v>
       </c>
       <c r="C4">
-        <v>16.53225407965578</v>
+        <v>10.46587687577909</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>5.029113470295838</v>
+        <v>8.640936578185881</v>
       </c>
       <c r="F4">
-        <v>26.79314218379242</v>
+        <v>15.26997757108491</v>
       </c>
       <c r="G4">
-        <v>2.114865729964585</v>
+        <v>3.724502955418774</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>33.86639650479217</v>
+        <v>35.26859887381717</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -545,7 +545,7 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>7.545388441237397</v>
+        <v>10.74624333475613</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.03237138060922</v>
+        <v>20.7373306767611</v>
       </c>
       <c r="C5">
-        <v>16.15531006783661</v>
+        <v>10.32121285054541</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>5.031027813502343</v>
+        <v>8.643584358786596</v>
       </c>
       <c r="F5">
-        <v>26.21694803853475</v>
+        <v>15.00819731993403</v>
       </c>
       <c r="G5">
-        <v>2.118699704771096</v>
+        <v>3.725810044829408</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>33.4826550063794</v>
+        <v>35.18305344719466</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -592,7 +592,7 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>7.477065493483565</v>
+        <v>10.74365683372795</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>20.96218931458582</v>
+        <v>20.72362077553542</v>
       </c>
       <c r="C6">
-        <v>16.09213420431009</v>
+        <v>10.29704826769228</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>5.031362262752186</v>
+        <v>8.644030676824569</v>
       </c>
       <c r="F6">
-        <v>26.1201820470107</v>
+        <v>14.96433081551593</v>
       </c>
       <c r="G6">
-        <v>2.119338735182102</v>
+        <v>3.726029341439807</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>33.4190104480237</v>
+        <v>35.16891962016688</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -639,7 +639,7 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>7.465767714089535</v>
+        <v>10.7432638621123</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>21.44670071501802</v>
+        <v>20.81931865290227</v>
       </c>
       <c r="C7">
-        <v>16.52720949843803</v>
+        <v>10.46393564529525</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>5.029138166091153</v>
+        <v>8.640971840972119</v>
       </c>
       <c r="F7">
-        <v>26.78544435617556</v>
+        <v>15.26647399323728</v>
       </c>
       <c r="G7">
-        <v>2.114917278733417</v>
+        <v>3.724520432190013</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>33.86121622833213</v>
+        <v>35.26744045381419</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -686,7 +686,7 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>7.54446387038588</v>
+        <v>10.74620600471694</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>23.64957700865417</v>
+        <v>21.25403456319298</v>
       </c>
       <c r="C8">
-        <v>18.36411089481054</v>
+        <v>11.17795106704996</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>5.021855417218005</v>
+        <v>8.628440217106363</v>
       </c>
       <c r="F8">
-        <v>29.56389055882486</v>
+        <v>16.53996406344769</v>
       </c>
       <c r="G8">
-        <v>2.095716101929656</v>
+        <v>3.718188620060878</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>35.82318655381276</v>
+        <v>35.71216138659544</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -733,7 +733,7 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>7.898403961608415</v>
+        <v>10.76449153952182</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>27.81570729309065</v>
+        <v>22.14295455326275</v>
       </c>
       <c r="C9">
-        <v>21.69035056177586</v>
+        <v>12.48479792636159</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>5.0181062653501</v>
+        <v>8.607328340265493</v>
       </c>
       <c r="F9">
-        <v>34.45877994148617</v>
+        <v>19.0027458068253</v>
       </c>
       <c r="G9">
-        <v>2.058735982362154</v>
+        <v>3.706934731895992</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>39.71256774555251</v>
+        <v>36.61664623563702</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -780,7 +780,7 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>8.615760570338869</v>
+        <v>10.81932598173085</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>30.69392495023315</v>
+        <v>22.81085997330377</v>
       </c>
       <c r="C10">
-        <v>23.99177256679349</v>
+        <v>13.37919671830118</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>5.023528877683694</v>
+        <v>8.593919066104352</v>
       </c>
       <c r="F10">
-        <v>37.72874519847221</v>
+        <v>20.67494806633232</v>
       </c>
       <c r="G10">
-        <v>2.031469818767673</v>
+        <v>3.69936458713476</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>42.6105030524316</v>
+        <v>37.29763176794916</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>9.158263541771374</v>
+        <v>10.87107372354665</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>31.97109696482591</v>
+        <v>23.11638019881017</v>
       </c>
       <c r="C11">
-        <v>25.01499514136073</v>
+        <v>13.77040480060559</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>5.028292022396901</v>
+        <v>8.588273350148519</v>
       </c>
       <c r="F11">
-        <v>39.14805722232856</v>
+        <v>21.3917225636224</v>
       </c>
       <c r="G11">
-        <v>2.018903552068541</v>
+        <v>3.696069998064538</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>43.94397178911337</v>
+        <v>37.61026718639508</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -874,7 +874,7 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>9.409245880845001</v>
+        <v>10.89707120294673</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>32.45089901004187</v>
+        <v>23.23219052715968</v>
       </c>
       <c r="C12">
-        <v>25.39979265858751</v>
+        <v>13.9162021014458</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>5.030482847387904</v>
+        <v>8.586200650951332</v>
       </c>
       <c r="F12">
-        <v>39.67592721363785</v>
+        <v>21.65686569030329</v>
       </c>
       <c r="G12">
-        <v>2.014106987471568</v>
+        <v>3.694843684039846</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>44.45189723319852</v>
+        <v>37.72899999233474</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -921,7 +921,7 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>9.505005438078255</v>
+        <v>10.90726555438888</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>32.34772126149272</v>
+        <v>23.2072454834453</v>
       </c>
       <c r="C13">
-        <v>25.31702530836152</v>
+        <v>13.88490763566275</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>5.029992739665019</v>
+        <v>8.586644145171366</v>
       </c>
       <c r="F13">
-        <v>39.5626640325822</v>
+        <v>21.60004134736742</v>
       </c>
       <c r="G13">
-        <v>2.015141967495078</v>
+        <v>3.69510684912612</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>44.34235905396838</v>
+        <v>37.70341448346583</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -968,7 +968,7 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>9.484347652796336</v>
+        <v>10.90505452990502</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>32.01064231820397</v>
+        <v>23.12590635739821</v>
       </c>
       <c r="C14">
-        <v>25.04670154055595</v>
+        <v>13.78244709906592</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>5.028464128695306</v>
+        <v>8.588101521599805</v>
       </c>
       <c r="F14">
-        <v>39.19167637503948</v>
+        <v>21.4136618050453</v>
       </c>
       <c r="G14">
-        <v>2.0185097913518</v>
+        <v>3.695968683034555</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>43.98569419119713</v>
+        <v>37.62002887783107</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1015,7 +1015,7 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>9.417108867988846</v>
+        <v>10.89790291306917</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>31.8036985007105</v>
+        <v>23.07609528963361</v>
       </c>
       <c r="C15">
-        <v>24.88079637582575</v>
+        <v>13.71937922837659</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>5.027580149551853</v>
+        <v>8.589002696080792</v>
       </c>
       <c r="F15">
-        <v>38.96319309154516</v>
+        <v>21.29868154950795</v>
       </c>
       <c r="G15">
-        <v>2.020567249997831</v>
+        <v>3.696499346931402</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>43.76764106218353</v>
+        <v>37.56899570291958</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1062,7 +1062,7 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>9.376020851253557</v>
+        <v>10.89356776210511</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>30.60987549311907</v>
+        <v>22.79091657497641</v>
       </c>
       <c r="C16">
-        <v>23.92448511434247</v>
+        <v>13.35330692980091</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>5.023268367133506</v>
+        <v>8.594297157903178</v>
       </c>
       <c r="F16">
-        <v>37.6346354302881</v>
+        <v>20.62722412089977</v>
       </c>
       <c r="G16">
-        <v>2.032286596208863</v>
+        <v>3.699582882508327</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>42.52372491272582</v>
+        <v>37.27725210746235</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1109,7 +1109,7 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>9.14195448148614</v>
+        <v>10.8694238684667</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>29.86978067015053</v>
+        <v>22.61630967045607</v>
       </c>
       <c r="C17">
-        <v>23.33222693459884</v>
+        <v>13.12465138486542</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>5.02124782736273</v>
+        <v>8.597661399790017</v>
       </c>
       <c r="F17">
-        <v>36.80228778268389</v>
+        <v>20.20408069617459</v>
       </c>
       <c r="G17">
-        <v>2.039424838119118</v>
+        <v>3.701512603610348</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>41.76499558298179</v>
+        <v>37.09896087661425</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1156,7 +1156,7 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>8.999504934902403</v>
+        <v>10.8552392465673</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>29.44101632659167</v>
+        <v>22.51604646802305</v>
       </c>
       <c r="C18">
-        <v>22.98929307341847</v>
+        <v>12.99166533963889</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>5.020297719615005</v>
+        <v>8.599639182995565</v>
       </c>
       <c r="F18">
-        <v>36.31710943239624</v>
+        <v>19.95656407809808</v>
       </c>
       <c r="G18">
-        <v>2.043516268963081</v>
+        <v>3.702636572825582</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>41.3299633028275</v>
+        <v>36.99668487073117</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1203,7 +1203,7 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>8.917957329903409</v>
+        <v>10.8473121566668</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>29.29529349357927</v>
+        <v>22.48213150249317</v>
       </c>
       <c r="C19">
-        <v>22.87276938483058</v>
+        <v>12.94638928395323</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>5.020010926797697</v>
+        <v>8.600316173894914</v>
       </c>
       <c r="F19">
-        <v>36.15172494157628</v>
+        <v>19.87204792380562</v>
       </c>
       <c r="G19">
-        <v>2.044899500936587</v>
+        <v>3.703019546732666</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>41.1828838963813</v>
+        <v>36.96210474041601</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1250,7 +1250,7 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>8.890410146365449</v>
+        <v>10.8446680499673</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>29.94887875802998</v>
+        <v>22.63488061255941</v>
       </c>
       <c r="C20">
-        <v>23.39550519974111</v>
+        <v>13.14914496402416</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>5.021440600554087</v>
+        <v>8.597298845770322</v>
       </c>
       <c r="F20">
-        <v>36.89155697731405</v>
+        <v>20.2495528364879</v>
       </c>
       <c r="G20">
-        <v>2.038666536433075</v>
+        <v>3.701305729137731</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>41.84561703704516</v>
+        <v>37.11791256306913</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1297,7 +1297,7 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>9.014628331929785</v>
+        <v>10.85672528650825</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>32.10974754531259</v>
+        <v>23.14979545361012</v>
       </c>
       <c r="C21">
-        <v>25.12616819299597</v>
+        <v>13.81260653823462</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>5.028902089541221</v>
+        <v>8.587671685828917</v>
       </c>
       <c r="F21">
-        <v>39.30090300329764</v>
+        <v>21.46857628470567</v>
       </c>
       <c r="G21">
-        <v>2.017521741930943</v>
+        <v>3.695714965442256</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>44.09036717651887</v>
+        <v>37.64451242550146</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1344,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>9.436837901976805</v>
+        <v>10.89999405780082</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>33.50014144159455</v>
+        <v>23.48694552773062</v>
       </c>
       <c r="C22">
-        <v>26.24212091901946</v>
+        <v>14.23251809874811</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>5.036072352913873</v>
+        <v>8.581759834776193</v>
       </c>
       <c r="F22">
-        <v>40.81974568026784</v>
+        <v>22.22866616901555</v>
       </c>
       <c r="G22">
-        <v>2.003471883848161</v>
+        <v>3.692185009945063</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>45.57531078637933</v>
+        <v>37.9906534819969</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1391,7 +1391,7 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>9.717049355219167</v>
+        <v>10.93030883188128</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>32.75975557966274</v>
+        <v>23.3069856540483</v>
       </c>
       <c r="C23">
-        <v>25.64761797544164</v>
+        <v>14.00968349634848</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>5.032012922047319</v>
+        <v>8.584880359420419</v>
       </c>
       <c r="F23">
-        <v>40.01414225038423</v>
+        <v>21.82633154475864</v>
       </c>
       <c r="G23">
-        <v>2.010997283067985</v>
+        <v>3.694057728816777</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>44.78080425800442</v>
+        <v>37.80575232027429</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1438,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>9.567053926733996</v>
+        <v>10.91394428730065</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>29.91312876735752</v>
+        <v>22.6264843042762</v>
       </c>
       <c r="C24">
-        <v>23.36690473946529</v>
+        <v>13.13807617192364</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>5.021352793039712</v>
+        <v>8.597462620518662</v>
       </c>
       <c r="F24">
-        <v>36.85121910575585</v>
+        <v>20.22900810905294</v>
       </c>
       <c r="G24">
-        <v>2.039009402309619</v>
+        <v>3.701399211764071</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>41.80916448521813</v>
+        <v>37.10934379673004</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1485,7 +1485,7 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>9.007789966562592</v>
+        <v>10.85605273791296</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>26.72287288247917</v>
+        <v>21.89934381485559</v>
       </c>
       <c r="C25">
-        <v>20.81763108541121</v>
+        <v>12.14226127621667</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>5.017832953634103</v>
+        <v>8.612669949220047</v>
       </c>
       <c r="F25">
-        <v>33.19272459127056</v>
+        <v>18.34778573295697</v>
       </c>
       <c r="G25">
-        <v>2.068715511664397</v>
+        <v>3.70985583693757</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>38.65485904811166</v>
+        <v>36.3688225646951</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1532,7 +1532,7 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>8.419158242744324</v>
+        <v>10.80246948647728</v>
       </c>
       <c r="M25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_253/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_253/res_line/loading_percent.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.37456280765034</v>
+        <v>24.24847895087447</v>
       </c>
       <c r="C2">
-        <v>11.36548476683183</v>
+        <v>18.84232322065928</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>8.625279463289823</v>
+        <v>5.020541402468274</v>
       </c>
       <c r="F2">
-        <v>16.86991607391233</v>
+        <v>30.27884324296195</v>
       </c>
       <c r="G2">
-        <v>3.716552107095005</v>
+        <v>2.090575263043537</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>35.83496705610499</v>
+        <v>36.35735032556657</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -451,7 +451,7 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>10.77073310614577</v>
+        <v>7.995879774149081</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>21.02796891469282</v>
+        <v>22.48510273788541</v>
       </c>
       <c r="C3">
-        <v>10.8147708032762</v>
+        <v>17.43383074211276</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>8.63470932158665</v>
+        <v>5.025109528585318</v>
       </c>
       <c r="F3">
-        <v>15.89584955866808</v>
+        <v>28.1630198432675</v>
       </c>
       <c r="G3">
-        <v>3.721386874987418</v>
+        <v>2.105548387550797</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>35.48134649904628</v>
+        <v>34.81106021257151</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -498,7 +498,7 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>10.75407328103996</v>
+        <v>7.71493120296638</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>20.82044561178383</v>
+        <v>21.45233438334094</v>
       </c>
       <c r="C4">
-        <v>10.46587687577909</v>
+        <v>16.53225407965581</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>8.640936578185881</v>
+        <v>5.029113470295838</v>
       </c>
       <c r="F4">
-        <v>15.26997757108491</v>
+        <v>26.79314218379246</v>
       </c>
       <c r="G4">
-        <v>3.724502955418774</v>
+        <v>2.114865729964715</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>35.26859887381717</v>
+        <v>33.86639650479238</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -545,7 +545,7 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>10.74624333475613</v>
+        <v>7.545388441237387</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>20.7373306767611</v>
+        <v>21.03237138060923</v>
       </c>
       <c r="C5">
-        <v>10.32121285054541</v>
+        <v>16.15531006783652</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>8.643584358786596</v>
+        <v>5.031027813502472</v>
       </c>
       <c r="F5">
-        <v>15.00819731993403</v>
+        <v>26.2169480385347</v>
       </c>
       <c r="G5">
-        <v>3.725810044829408</v>
+        <v>2.118699704771091</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>35.18305344719466</v>
+        <v>33.48265500637937</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -592,7 +592,7 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>10.74365683372795</v>
+        <v>7.477065493483624</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>20.72362077553542</v>
+        <v>20.96218931458583</v>
       </c>
       <c r="C6">
-        <v>10.29704826769228</v>
+        <v>16.09213420430992</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>8.644030676824569</v>
+        <v>5.031362262752387</v>
       </c>
       <c r="F6">
-        <v>14.96433081551593</v>
+        <v>26.12018204701072</v>
       </c>
       <c r="G6">
-        <v>3.726029341439807</v>
+        <v>2.119338735181842</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>35.16891962016688</v>
+        <v>33.4190104480239</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -639,7 +639,7 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>10.7432638621123</v>
+        <v>7.465767714089624</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>20.81931865290227</v>
+        <v>21.44670071501803</v>
       </c>
       <c r="C7">
-        <v>10.46393564529525</v>
+        <v>16.52720949843799</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>8.640971840972119</v>
+        <v>5.02913816609122</v>
       </c>
       <c r="F7">
-        <v>15.26647399323728</v>
+        <v>26.78544435617556</v>
       </c>
       <c r="G7">
-        <v>3.724520432190013</v>
+        <v>2.114917278733554</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>35.26744045381419</v>
+        <v>33.8612162283321</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -686,7 +686,7 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>10.74620600471694</v>
+        <v>7.544463870385949</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>21.25403456319298</v>
+        <v>23.64957700865424</v>
       </c>
       <c r="C8">
-        <v>11.17795106704996</v>
+        <v>18.36411089481058</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>8.628440217106363</v>
+        <v>5.021855417218075</v>
       </c>
       <c r="F8">
-        <v>16.53996406344769</v>
+        <v>29.56389055882491</v>
       </c>
       <c r="G8">
-        <v>3.718188620060878</v>
+        <v>2.095716101929533</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>35.71216138659544</v>
+        <v>35.82318655381283</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -733,7 +733,7 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>10.76449153952182</v>
+        <v>7.898403961608409</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>22.14295455326275</v>
+        <v>27.81570729309077</v>
       </c>
       <c r="C9">
-        <v>12.48479792636159</v>
+        <v>21.69035056177587</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>8.607328340265493</v>
+        <v>5.018106265350091</v>
       </c>
       <c r="F9">
-        <v>19.0027458068253</v>
+        <v>34.45877994148621</v>
       </c>
       <c r="G9">
-        <v>3.706934731895992</v>
+        <v>2.058735982362154</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>36.61664623563702</v>
+        <v>39.71256774555273</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -780,7 +780,7 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>10.81932598173085</v>
+        <v>8.615760570338841</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>22.81085997330377</v>
+        <v>30.69392495023313</v>
       </c>
       <c r="C10">
-        <v>13.37919671830118</v>
+        <v>23.99177256679338</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>8.593919066104352</v>
+        <v>5.023528877683697</v>
       </c>
       <c r="F10">
-        <v>20.67494806633232</v>
+        <v>37.72874519847226</v>
       </c>
       <c r="G10">
-        <v>3.69936458713476</v>
+        <v>2.031469818767542</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>37.29763176794916</v>
+        <v>42.61050305243139</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>10.87107372354665</v>
+        <v>9.15826354177141</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>23.11638019881017</v>
+        <v>31.97109696482583</v>
       </c>
       <c r="C11">
-        <v>13.77040480060559</v>
+        <v>25.01499514136056</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>8.588273350148519</v>
+        <v>5.028292022396901</v>
       </c>
       <c r="F11">
-        <v>21.3917225636224</v>
+        <v>39.14805722232853</v>
       </c>
       <c r="G11">
-        <v>3.696069998064538</v>
+        <v>2.018903552068407</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>37.61026718639508</v>
+        <v>43.94397178911317</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -874,7 +874,7 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>10.89707120294673</v>
+        <v>9.409245880845015</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>23.23219052715968</v>
+        <v>32.45089901004189</v>
       </c>
       <c r="C12">
-        <v>13.9162021014458</v>
+        <v>25.39979265858761</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>8.586200650951332</v>
+        <v>5.030482847387968</v>
       </c>
       <c r="F12">
-        <v>21.65686569030329</v>
+        <v>39.67592721363783</v>
       </c>
       <c r="G12">
-        <v>3.694843684039846</v>
+        <v>2.01410698747183</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>37.72899999233474</v>
+        <v>44.45189723319876</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -921,7 +921,7 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>10.90726555438888</v>
+        <v>9.505005438078284</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>23.2072454834453</v>
+        <v>32.34772126149264</v>
       </c>
       <c r="C13">
-        <v>13.88490763566275</v>
+        <v>25.31702530836154</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>8.586644145171366</v>
+        <v>5.029992739664879</v>
       </c>
       <c r="F13">
-        <v>21.60004134736742</v>
+        <v>39.56266403258223</v>
       </c>
       <c r="G13">
-        <v>3.69510684912612</v>
+        <v>2.015141967495059</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>37.70341448346583</v>
+        <v>44.34235905396848</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -968,7 +968,7 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>10.90505452990502</v>
+        <v>9.484347652796297</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>23.12590635739821</v>
+        <v>32.01064231820395</v>
       </c>
       <c r="C14">
-        <v>13.78244709906592</v>
+        <v>25.04670154055606</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>8.588101521599805</v>
+        <v>5.028464128695301</v>
       </c>
       <c r="F14">
-        <v>21.4136618050453</v>
+        <v>39.19167637503956</v>
       </c>
       <c r="G14">
-        <v>3.695968683034555</v>
+        <v>2.01850979135153</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>37.62002887783107</v>
+        <v>43.98569419119728</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1015,7 +1015,7 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>10.89790291306917</v>
+        <v>9.417108867988853</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>23.07609528963361</v>
+        <v>31.80369850071042</v>
       </c>
       <c r="C15">
-        <v>13.71937922837659</v>
+        <v>24.88079637582566</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>8.589002696080792</v>
+        <v>5.027580149551792</v>
       </c>
       <c r="F15">
-        <v>21.29868154950795</v>
+        <v>38.96319309154514</v>
       </c>
       <c r="G15">
-        <v>3.696499346931402</v>
+        <v>2.020567249997838</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>37.56899570291958</v>
+        <v>43.76764106218349</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1062,7 +1062,7 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>10.89356776210511</v>
+        <v>9.376020851253559</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>22.79091657497641</v>
+        <v>30.60987549311904</v>
       </c>
       <c r="C16">
-        <v>13.35330692980091</v>
+        <v>23.92448511434241</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>8.594297157903178</v>
+        <v>5.023268367133645</v>
       </c>
       <c r="F16">
-        <v>20.62722412089977</v>
+        <v>37.63463543028804</v>
       </c>
       <c r="G16">
-        <v>3.699582882508327</v>
+        <v>2.032286596208878</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>37.27725210746235</v>
+        <v>42.52372491272612</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1109,7 +1109,7 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>10.8694238684667</v>
+        <v>9.141954481486158</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>22.61630967045607</v>
+        <v>29.8697806701504</v>
       </c>
       <c r="C17">
-        <v>13.12465138486542</v>
+        <v>23.33222693459866</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>8.597661399790017</v>
+        <v>5.021247827362599</v>
       </c>
       <c r="F17">
-        <v>20.20408069617459</v>
+        <v>36.80228778268393</v>
       </c>
       <c r="G17">
-        <v>3.701512603610348</v>
+        <v>2.03942483811937</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>37.09896087661425</v>
+        <v>41.76499558298168</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1156,7 +1156,7 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>10.8552392465673</v>
+        <v>8.999504934902392</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>22.51604646802305</v>
+        <v>29.44101632659164</v>
       </c>
       <c r="C18">
-        <v>12.99166533963889</v>
+        <v>22.98929307341854</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>8.599639182995565</v>
+        <v>5.020297719614942</v>
       </c>
       <c r="F18">
-        <v>19.95656407809808</v>
+        <v>36.31710943239627</v>
       </c>
       <c r="G18">
-        <v>3.702636572825582</v>
+        <v>2.043516268962825</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>36.99668487073117</v>
+        <v>41.32996330282787</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1203,7 +1203,7 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>10.8473121566668</v>
+        <v>8.917957329903441</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>22.48213150249317</v>
+        <v>29.29529349357932</v>
       </c>
       <c r="C19">
-        <v>12.94638928395323</v>
+        <v>22.87276938483052</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>8.600316173894914</v>
+        <v>5.020010926797621</v>
       </c>
       <c r="F19">
-        <v>19.87204792380562</v>
+        <v>36.15172494157628</v>
       </c>
       <c r="G19">
-        <v>3.703019546732666</v>
+        <v>2.044899500936452</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>36.96210474041601</v>
+        <v>41.18288389638143</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1250,7 +1250,7 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>10.8446680499673</v>
+        <v>8.890410146365438</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>22.63488061255941</v>
+        <v>29.94887875803003</v>
       </c>
       <c r="C20">
-        <v>13.14914496402416</v>
+        <v>23.39550519974106</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>8.597298845770322</v>
+        <v>5.021440600553897</v>
       </c>
       <c r="F20">
-        <v>20.2495528364879</v>
+        <v>36.89155697731402</v>
       </c>
       <c r="G20">
-        <v>3.701305729137731</v>
+        <v>2.038666536432951</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>37.11791256306913</v>
+        <v>41.84561703704537</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1297,7 +1297,7 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>10.85672528650825</v>
+        <v>9.014628331929773</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>23.14979545361012</v>
+        <v>32.10974754531246</v>
       </c>
       <c r="C21">
-        <v>13.81260653823462</v>
+        <v>25.12616819299568</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>8.587671685828917</v>
+        <v>5.02890208954109</v>
       </c>
       <c r="F21">
-        <v>21.46857628470567</v>
+        <v>39.30090300329766</v>
       </c>
       <c r="G21">
-        <v>3.695714965442256</v>
+        <v>2.017521741931208</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>37.64451242550146</v>
+        <v>44.09036717651872</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1344,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>10.89999405780082</v>
+        <v>9.436837901976789</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>23.48694552773062</v>
+        <v>33.50014144159456</v>
       </c>
       <c r="C22">
-        <v>14.23251809874811</v>
+        <v>26.24212091901975</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>8.581759834776193</v>
+        <v>5.036072352914061</v>
       </c>
       <c r="F22">
-        <v>22.22866616901555</v>
+        <v>40.81974568026779</v>
       </c>
       <c r="G22">
-        <v>3.692185009945063</v>
+        <v>2.003471883848271</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>37.9906534819969</v>
+        <v>45.57531078637975</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1391,7 +1391,7 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>10.93030883188128</v>
+        <v>9.717049355219173</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>23.3069856540483</v>
+        <v>32.75975557966257</v>
       </c>
       <c r="C23">
-        <v>14.00968349634848</v>
+        <v>25.64761797544165</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>8.584880359420419</v>
+        <v>5.032012922047191</v>
       </c>
       <c r="F23">
-        <v>21.82633154475864</v>
+        <v>40.01414225038419</v>
       </c>
       <c r="G23">
-        <v>3.694057728816777</v>
+        <v>2.01099728306813</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>37.80575232027429</v>
+        <v>44.78080425800439</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1438,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>10.91394428730065</v>
+        <v>9.567053926733971</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>22.6264843042762</v>
+        <v>29.91312876735748</v>
       </c>
       <c r="C24">
-        <v>13.13807617192364</v>
+        <v>23.36690473946509</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>8.597462620518662</v>
+        <v>5.021352793039584</v>
       </c>
       <c r="F24">
-        <v>20.22900810905294</v>
+        <v>36.85121910575582</v>
       </c>
       <c r="G24">
-        <v>3.701399211764071</v>
+        <v>2.039009402309484</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>37.10934379673004</v>
+        <v>41.80916448521824</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1485,7 +1485,7 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>10.85605273791296</v>
+        <v>9.007789966562605</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>21.89934381485559</v>
+        <v>26.72287288247916</v>
       </c>
       <c r="C25">
-        <v>12.14226127621667</v>
+        <v>20.81763108541112</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>8.612669949220047</v>
+        <v>5.017832953634167</v>
       </c>
       <c r="F25">
-        <v>18.34778573295697</v>
+        <v>33.19272459127056</v>
       </c>
       <c r="G25">
-        <v>3.70985583693757</v>
+        <v>2.068715511664664</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>36.3688225646951</v>
+        <v>38.65485904811188</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1532,7 +1532,7 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>10.80246948647728</v>
+        <v>8.419158242744317</v>
       </c>
       <c r="M25">
         <v>0</v>
